--- a/output/1Y_P35_KFSDIV.xlsx
+++ b/output/1Y_P35_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.3527</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.8804</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E3" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="F3" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="H3" s="1">
-        <v>10395.201</v>
+        <v>10353.6007</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10395.201</v>
+        <v>10353.6007</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0395</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>14.6268</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E4" s="1">
-        <v>1469.3525</v>
+        <v>1466.4124</v>
       </c>
       <c r="F4" s="1">
-        <v>683.6765</v>
+        <v>682.3098</v>
       </c>
       <c r="H4" s="1">
-        <v>21491.9257</v>
+        <v>21406.1015</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21491.9257</v>
+        <v>21406.1015</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6114</v>
+        <v>13.6387</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0538</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>15.3636</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E5" s="1">
-        <v>2153.0291</v>
+        <v>2148.7221</v>
       </c>
       <c r="F5" s="1">
-        <v>650.8891</v>
+        <v>649.5869</v>
       </c>
       <c r="H5" s="1">
-        <v>33078.2775</v>
+        <v>32946.1417</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>33078.2775</v>
+        <v>32946.1417</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.9339</v>
+        <v>13.9618</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0504</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>13.8711</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E6" s="1">
-        <v>2803.9182</v>
+        <v>2798.309</v>
       </c>
       <c r="F6" s="1">
-        <v>720.9234</v>
+        <v>719.4814</v>
       </c>
       <c r="H6" s="1">
-        <v>38893.4296</v>
+        <v>38738.1109</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38893.4296</v>
+        <v>38738.1109</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.2658</v>
+        <v>14.2943</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>968.8631</v>
+        <v>966.925</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9031.1369</v>
+        <v>-9033.075000000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.09710000000000001</v>
+        <v>-0.098</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>14.1252</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E7" s="1">
-        <v>3524.8416</v>
+        <v>3517.7904</v>
       </c>
       <c r="F7" s="1">
-        <v>717.7533</v>
+        <v>716.2986</v>
       </c>
       <c r="H7" s="1">
-        <v>49789.0919</v>
+        <v>49590.2913</v>
       </c>
       <c r="I7" s="1">
-        <v>968.8631</v>
+        <v>966.925</v>
       </c>
       <c r="J7" s="1">
-        <v>50757.955</v>
+        <v>50557.2163</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.185</v>
+        <v>14.2135</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10138.409</v>
+        <v>-10138.1321</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0381</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>14.1934</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E8" s="1">
-        <v>4242.5949</v>
+        <v>4234.089</v>
       </c>
       <c r="F8" s="1">
-        <v>714.3045</v>
+        <v>712.8586</v>
       </c>
       <c r="H8" s="1">
-        <v>60216.8458</v>
+        <v>59975.8706</v>
       </c>
       <c r="I8" s="1">
-        <v>830.4541</v>
+        <v>828.7928000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>61047.2999</v>
+        <v>60804.6635</v>
       </c>
       <c r="K8" s="1">
-        <v>60138.409</v>
+        <v>60138.1321</v>
       </c>
       <c r="L8" s="1">
-        <v>14.1749</v>
+        <v>14.2033</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10138.409</v>
+        <v>-10138.1321</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0048</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>14.1176</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E9" s="1">
-        <v>4956.8993</v>
+        <v>4946.9476</v>
       </c>
       <c r="F9" s="1">
-        <v>718.1396999999999</v>
+        <v>716.6834</v>
       </c>
       <c r="H9" s="1">
-        <v>69979.52190000001</v>
+        <v>69699.5232</v>
       </c>
       <c r="I9" s="1">
-        <v>692.0451</v>
+        <v>690.6607</v>
       </c>
       <c r="J9" s="1">
-        <v>70671.567</v>
+        <v>70390.1839</v>
       </c>
       <c r="K9" s="1">
-        <v>70276.818</v>
+        <v>70276.2643</v>
       </c>
       <c r="L9" s="1">
-        <v>14.1776</v>
+        <v>14.206</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1909.1677</v>
+        <v>1905.34</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8229.2413</v>
+        <v>-8232.792100000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0053</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>15.3311</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E10" s="1">
-        <v>5675.039</v>
+        <v>5663.631</v>
       </c>
       <c r="F10" s="1">
-        <v>692.4292</v>
+        <v>690.9651</v>
       </c>
       <c r="H10" s="1">
-        <v>87004.59080000001</v>
+        <v>86655.8198</v>
       </c>
       <c r="I10" s="1">
-        <v>2462.8037</v>
+        <v>2457.8686</v>
       </c>
       <c r="J10" s="1">
-        <v>89467.39449999999</v>
+        <v>89113.6884</v>
       </c>
       <c r="K10" s="1">
-        <v>80415.227</v>
+        <v>80414.3964</v>
       </c>
       <c r="L10" s="1">
-        <v>14.17</v>
+        <v>14.1984</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10615.7009</v>
+        <v>-10614.4671</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.109</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>15.3637</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E11" s="1">
-        <v>6367.4682</v>
+        <v>6354.5961</v>
       </c>
       <c r="F11" s="1">
-        <v>690.9598999999999</v>
+        <v>689.4974</v>
       </c>
       <c r="H11" s="1">
-        <v>97827.87119999999</v>
+        <v>97435.02159999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1847.1028</v>
+        <v>1843.4014</v>
       </c>
       <c r="J11" s="1">
-        <v>99674.974</v>
+        <v>99278.423</v>
       </c>
       <c r="K11" s="1">
-        <v>91030.928</v>
+        <v>91028.8636</v>
       </c>
       <c r="L11" s="1">
-        <v>14.2963</v>
+        <v>14.3249</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10615.7009</v>
+        <v>-10614.4671</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0021</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>14.6447</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E12" s="1">
-        <v>7058.4281</v>
+        <v>7044.0934</v>
       </c>
       <c r="F12" s="1">
-        <v>724.8835</v>
+        <v>723.352</v>
       </c>
       <c r="H12" s="1">
-        <v>103368.5623</v>
+        <v>102952.2432</v>
       </c>
       <c r="I12" s="1">
-        <v>1231.4019</v>
+        <v>1228.9343</v>
       </c>
       <c r="J12" s="1">
-        <v>104599.9641</v>
+        <v>104181.1775</v>
       </c>
       <c r="K12" s="1">
-        <v>101646.6289</v>
+        <v>101643.3307</v>
       </c>
       <c r="L12" s="1">
-        <v>14.4007</v>
+        <v>14.4296</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5730.7214</v>
+        <v>5719.1365</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-4884.9796</v>
+        <v>-4895.3307</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0463</v>
+        <v>-0.0466</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>15.486</v>
       </c>
       <c r="C13" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D13" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E13" s="1">
-        <v>7783.3116</v>
+        <v>7767.4454</v>
       </c>
       <c r="F13" s="1">
-        <v>1055.5613</v>
+        <v>1052.6264</v>
       </c>
       <c r="H13" s="1">
-        <v>120532.3632</v>
+        <v>120045.8691</v>
       </c>
       <c r="I13" s="1">
-        <v>6346.4223</v>
+        <v>6333.6036</v>
       </c>
       <c r="J13" s="1">
-        <v>126878.7856</v>
+        <v>126379.4727</v>
       </c>
       <c r="K13" s="1">
-        <v>112262.3298</v>
+        <v>112257.7979</v>
       </c>
       <c r="L13" s="1">
-        <v>14.4235</v>
+        <v>14.4523</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-16346.4223</v>
+        <v>-16333.6036</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1071</v>
+        <v>0.1068</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>16.1958</v>
       </c>
       <c r="C14" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D14" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E14" s="1">
-        <v>8838.8729</v>
+        <v>8820.0718</v>
       </c>
       <c r="F14" s="1">
-        <v>-8838.8729</v>
+        <v>-8820.0718</v>
       </c>
       <c r="H14" s="1">
-        <v>143151.7336</v>
+        <v>142562.3487</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>143151.7336</v>
+        <v>142562.3487</v>
       </c>
       <c r="K14" s="1">
-        <v>128608.7521</v>
+        <v>128591.4015</v>
       </c>
       <c r="L14" s="1">
-        <v>14.5504</v>
+        <v>14.5794</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>143151.7336</v>
+        <v>142562.3487</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0458</v>
+        <v>0.0453</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.3527</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.8804</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E3" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="F3" s="1">
-        <v>691.9684999999999</v>
+        <v>696.3602</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10395.201</v>
+        <v>10353.6007</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10395.201</v>
+        <v>10353.6007</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9604.799000000001</v>
+        <v>-9685.117</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0395</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>14.6268</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E4" s="1">
-        <v>1440.8807</v>
+        <v>1443.7723</v>
       </c>
       <c r="F4" s="1">
-        <v>610.149</v>
+        <v>611.3601</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21075.4733</v>
+        <v>21075.6104</v>
       </c>
       <c r="I4" s="1">
-        <v>395.201</v>
+        <v>314.883</v>
       </c>
       <c r="J4" s="1">
-        <v>21470.6743</v>
+        <v>21390.4934</v>
       </c>
       <c r="K4" s="1">
-        <v>19604.799</v>
+        <v>19685.117</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6061</v>
+        <v>13.6345</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8924.5267</v>
+        <v>-8960.154200000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0527</v>
+        <v>0.0509</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>15.3636</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E5" s="1">
-        <v>2051.0296</v>
+        <v>2055.1324</v>
       </c>
       <c r="F5" s="1">
-        <v>552.5268</v>
+        <v>553.6369999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31511.1986</v>
+        <v>31511.1388</v>
       </c>
       <c r="I5" s="1">
-        <v>1470.6743</v>
+        <v>1354.7288</v>
       </c>
       <c r="J5" s="1">
-        <v>32981.8729</v>
+        <v>32865.8676</v>
       </c>
       <c r="K5" s="1">
-        <v>28529.3257</v>
+        <v>28645.2712</v>
       </c>
       <c r="L5" s="1">
-        <v>13.9098</v>
+        <v>13.9384</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8488.8014</v>
+        <v>-8522.909900000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>13.8711</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E6" s="1">
-        <v>2603.5565</v>
+        <v>2608.7694</v>
       </c>
       <c r="F6" s="1">
-        <v>935.8935</v>
+        <v>923.2255</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>36114.192</v>
+        <v>36114.238</v>
       </c>
       <c r="I6" s="1">
-        <v>2981.8729</v>
+        <v>2831.819</v>
       </c>
       <c r="J6" s="1">
-        <v>39096.0649</v>
+        <v>38946.057</v>
       </c>
       <c r="K6" s="1">
-        <v>37018.1271</v>
+        <v>37168.181</v>
       </c>
       <c r="L6" s="1">
-        <v>14.2183</v>
+        <v>14.2474</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>922.9633</v>
+        <v>924.8096</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-12058.9096</v>
+        <v>-11907.0094</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.09039999999999999</v>
+        <v>-0.0914</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>14.1252</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E7" s="1">
-        <v>3539.45</v>
+        <v>3531.9949</v>
       </c>
       <c r="F7" s="1">
-        <v>708.2775</v>
+        <v>724.2298</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49995.4392</v>
+        <v>49790.5319</v>
       </c>
       <c r="I7" s="1">
-        <v>922.9633</v>
+        <v>924.8096</v>
       </c>
       <c r="J7" s="1">
-        <v>50918.4025</v>
+        <v>50715.3414</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.1265</v>
+        <v>14.1563</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10004.5608</v>
+        <v>-10250.3871</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0371</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>14.1934</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E8" s="1">
-        <v>4247.7275</v>
+        <v>4256.2247</v>
       </c>
       <c r="F8" s="1">
-        <v>684.1423</v>
+        <v>685.5331</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60289.695</v>
+        <v>60289.4233</v>
       </c>
       <c r="I8" s="1">
-        <v>918.4025</v>
+        <v>674.4224</v>
       </c>
       <c r="J8" s="1">
-        <v>61208.0975</v>
+        <v>60963.8457</v>
       </c>
       <c r="K8" s="1">
-        <v>60004.5608</v>
+        <v>60250.3871</v>
       </c>
       <c r="L8" s="1">
-        <v>14.1263</v>
+        <v>14.1558</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9710.305</v>
+        <v>-9749.514999999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0048</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>14.1176</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E9" s="1">
-        <v>4931.8697</v>
+        <v>4941.7579</v>
       </c>
       <c r="F9" s="1">
-        <v>734.8158</v>
+        <v>736.2696</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>69626.1643</v>
+        <v>69626.4031</v>
       </c>
       <c r="I9" s="1">
-        <v>1208.0975</v>
+        <v>924.9074000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>70834.26179999999</v>
+        <v>70551.31050000001</v>
       </c>
       <c r="K9" s="1">
-        <v>69714.8658</v>
+        <v>69999.90210000001</v>
       </c>
       <c r="L9" s="1">
-        <v>14.1356</v>
+        <v>14.165</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1911.4774</v>
+        <v>1915.3011</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8462.358399999999</v>
+        <v>-8499.895</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0052</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>15.3311</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E10" s="1">
-        <v>5666.6856</v>
+        <v>5678.0275</v>
       </c>
       <c r="F10" s="1">
-        <v>203.7347</v>
+        <v>204.1717</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>86876.5229</v>
+        <v>86876.0912</v>
       </c>
       <c r="I10" s="1">
-        <v>2745.7391</v>
+        <v>2425.0124</v>
       </c>
       <c r="J10" s="1">
-        <v>89622.262</v>
+        <v>89301.10370000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80088.7016</v>
+        <v>80415.0983</v>
       </c>
       <c r="L10" s="1">
-        <v>14.1333</v>
+        <v>14.1625</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-3123.4771</v>
+        <v>-3136.4449</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1087</v>
+        <v>0.1086</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>15.3637</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E11" s="1">
-        <v>5870.4203</v>
+        <v>5882.1992</v>
       </c>
       <c r="F11" s="1">
-        <v>638.4285</v>
+        <v>639.6818</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90191.3757</v>
+        <v>90191.7597</v>
       </c>
       <c r="I11" s="1">
-        <v>9622.262000000001</v>
+        <v>9288.567499999999</v>
       </c>
       <c r="J11" s="1">
-        <v>99813.63770000001</v>
+        <v>99480.3272</v>
       </c>
       <c r="K11" s="1">
-        <v>83212.1786</v>
+        <v>83551.5431</v>
       </c>
       <c r="L11" s="1">
-        <v>14.1748</v>
+        <v>14.2041</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9808.624299999999</v>
+        <v>-9847.5807</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>14.6447</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E12" s="1">
-        <v>6508.8488</v>
+        <v>6521.8809</v>
       </c>
       <c r="F12" s="1">
-        <v>1002.401</v>
+        <v>1004.427</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>95320.13770000001</v>
+        <v>95319.8983</v>
       </c>
       <c r="I12" s="1">
-        <v>9813.637699999999</v>
+        <v>9440.986800000001</v>
       </c>
       <c r="J12" s="1">
-        <v>105133.7755</v>
+        <v>104760.8851</v>
       </c>
       <c r="K12" s="1">
-        <v>93020.8029</v>
+        <v>93399.12390000001</v>
       </c>
       <c r="L12" s="1">
-        <v>14.2914</v>
+        <v>14.3209</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5283.3782</v>
+        <v>5293.9792</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9396.484</v>
+        <v>-9444.981900000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0426</v>
+        <v>-0.0431</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>15.486</v>
       </c>
       <c r="C13" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D13" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E13" s="1">
-        <v>7511.2498</v>
+        <v>7526.3079</v>
       </c>
       <c r="F13" s="1">
-        <v>237.6847</v>
+        <v>238.1696</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>116319.2145</v>
+        <v>116319.0881</v>
       </c>
       <c r="I13" s="1">
-        <v>10417.1537</v>
+        <v>9996.0049</v>
       </c>
       <c r="J13" s="1">
-        <v>126736.3682</v>
+        <v>126315.093</v>
       </c>
       <c r="K13" s="1">
-        <v>107700.6652</v>
+        <v>108138.085</v>
       </c>
       <c r="L13" s="1">
-        <v>14.3386</v>
+        <v>14.368</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-3680.7855</v>
+        <v>-3695.6784</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1008</v>
+        <v>0.1007</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>16.1958</v>
       </c>
       <c r="C14" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D14" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E14" s="1">
-        <v>7748.9345</v>
+        <v>7764.4775</v>
       </c>
       <c r="F14" s="1">
-        <v>-7748.9345</v>
+        <v>-7764.4775</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125499.4188</v>
+        <v>125500.3559</v>
       </c>
       <c r="I14" s="1">
-        <v>16736.3682</v>
+        <v>16300.3264</v>
       </c>
       <c r="J14" s="1">
-        <v>142235.787</v>
+        <v>141800.6823</v>
       </c>
       <c r="K14" s="1">
-        <v>111381.4508</v>
+        <v>111833.7635</v>
       </c>
       <c r="L14" s="1">
-        <v>14.3738</v>
+        <v>14.4033</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125499.4188</v>
+        <v>125500.3559</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0402</v>
@@ -2224,16 +2224,16 @@
         <v>13.3527</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.8804</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E3" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="F3" s="1">
-        <v>695.5707</v>
+        <v>699.9696</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10395.201</v>
+        <v>10353.6007</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10395.201</v>
+        <v>10353.6007</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9654.799000000001</v>
+        <v>-9735.3177</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0395</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>14.6268</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E4" s="1">
-        <v>1444.4829</v>
+        <v>1447.3817</v>
       </c>
       <c r="F4" s="1">
-        <v>616.819</v>
+        <v>618.0434</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21128.162</v>
+        <v>21128.2994</v>
       </c>
       <c r="I4" s="1">
-        <v>345.201</v>
+        <v>264.6823</v>
       </c>
       <c r="J4" s="1">
-        <v>21473.363</v>
+        <v>21392.9817</v>
       </c>
       <c r="K4" s="1">
-        <v>19654.799</v>
+        <v>19735.3177</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6068</v>
+        <v>13.6352</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9022.088</v>
+        <v>-9058.1062</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0529</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>15.3636</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E5" s="1">
-        <v>2061.3019</v>
+        <v>2065.4251</v>
       </c>
       <c r="F5" s="1">
-        <v>561.8464</v>
+        <v>562.9752999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31669.0172</v>
+        <v>31668.9571</v>
       </c>
       <c r="I5" s="1">
-        <v>1323.113</v>
+        <v>1206.5762</v>
       </c>
       <c r="J5" s="1">
-        <v>32992.1302</v>
+        <v>32875.5333</v>
       </c>
       <c r="K5" s="1">
-        <v>28676.887</v>
+        <v>28793.4238</v>
       </c>
       <c r="L5" s="1">
-        <v>13.912</v>
+        <v>13.9407</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8631.984</v>
+        <v>-8666.667100000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0483</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>13.8711</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E6" s="1">
-        <v>2623.1483</v>
+        <v>2628.4004</v>
       </c>
       <c r="F6" s="1">
-        <v>914.9331</v>
+        <v>902.2231</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>36385.9524</v>
+        <v>36385.9988</v>
       </c>
       <c r="I6" s="1">
-        <v>2691.1289</v>
+        <v>2539.9091</v>
       </c>
       <c r="J6" s="1">
-        <v>39077.0814</v>
+        <v>38925.9078</v>
       </c>
       <c r="K6" s="1">
-        <v>37308.8711</v>
+        <v>37460.0909</v>
       </c>
       <c r="L6" s="1">
-        <v>14.2229</v>
+        <v>14.252</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>927.5857999999999</v>
+        <v>929.4413</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11763.5431</v>
+        <v>-11610.4677</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0911</v>
+        <v>-0.0921</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>14.1252</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E7" s="1">
-        <v>3538.0814</v>
+        <v>3530.6236</v>
       </c>
       <c r="F7" s="1">
-        <v>763.0979</v>
+        <v>772.2077</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49976.1078</v>
+        <v>49771.2006</v>
       </c>
       <c r="I7" s="1">
-        <v>927.5857999999999</v>
+        <v>929.4413</v>
       </c>
       <c r="J7" s="1">
-        <v>50903.6937</v>
+        <v>50700.6419</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.132</v>
+        <v>14.1618</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10778.9109</v>
+        <v>-10929.4413</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0372</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>14.1934</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E8" s="1">
-        <v>4301.1794</v>
+        <v>4302.8313</v>
       </c>
       <c r="F8" s="1">
-        <v>705.288</v>
+        <v>703.1459</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61048.3592</v>
+        <v>60949.6047</v>
       </c>
       <c r="I8" s="1">
-        <v>148.6749</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>61197.0341</v>
+        <v>60949.6047</v>
       </c>
       <c r="K8" s="1">
-        <v>60778.9109</v>
+        <v>60929.4413</v>
       </c>
       <c r="L8" s="1">
-        <v>14.1308</v>
+        <v>14.1603</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10010.4347</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0048</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>14.1176</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E9" s="1">
-        <v>5006.4674</v>
+        <v>5005.9771</v>
       </c>
       <c r="F9" s="1">
-        <v>718.1277</v>
+        <v>706.9186</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>70679.3037</v>
+        <v>70531.2141</v>
       </c>
       <c r="I9" s="1">
-        <v>138.2402</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70817.5439</v>
+        <v>70531.2141</v>
       </c>
       <c r="K9" s="1">
-        <v>70789.3456</v>
+        <v>70929.44130000001</v>
       </c>
       <c r="L9" s="1">
-        <v>14.1396</v>
+        <v>14.169</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1935.5307</v>
+        <v>1936.2741</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8202.709500000001</v>
+        <v>-8063.7259</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0053</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>15.3311</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E10" s="1">
-        <v>5724.5951</v>
+        <v>5712.8957</v>
       </c>
       <c r="F10" s="1">
-        <v>264.6136</v>
+        <v>288.3303</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>87764.34</v>
+        <v>87409.59</v>
       </c>
       <c r="I10" s="1">
-        <v>1935.5307</v>
+        <v>1936.2741</v>
       </c>
       <c r="J10" s="1">
-        <v>89699.8708</v>
+        <v>89345.864</v>
       </c>
       <c r="K10" s="1">
-        <v>80927.5858</v>
+        <v>80929.44130000001</v>
       </c>
       <c r="L10" s="1">
-        <v>14.1368</v>
+        <v>14.1661</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-4056.8182</v>
+        <v>-4429.2718</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1099</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>15.3637</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E11" s="1">
-        <v>5989.2088</v>
+        <v>6001.226</v>
       </c>
       <c r="F11" s="1">
-        <v>668.059</v>
+        <v>669.371</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92016.4065</v>
+        <v>92016.79829999999</v>
       </c>
       <c r="I11" s="1">
-        <v>7878.7125</v>
+        <v>7507.0023</v>
       </c>
       <c r="J11" s="1">
-        <v>99895.11900000001</v>
+        <v>99523.8005</v>
       </c>
       <c r="K11" s="1">
-        <v>84984.4041</v>
+        <v>85358.71309999999</v>
       </c>
       <c r="L11" s="1">
-        <v>14.1896</v>
+        <v>14.2235</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10263.8576</v>
+        <v>-10304.6321</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>14.6447</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E12" s="1">
-        <v>6657.2677</v>
+        <v>6670.597</v>
       </c>
       <c r="F12" s="1">
-        <v>1044.6084</v>
+        <v>1046.7193</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>97493.68859999999</v>
+        <v>97493.4437</v>
       </c>
       <c r="I12" s="1">
-        <v>7614.8549</v>
+        <v>7202.3701</v>
       </c>
       <c r="J12" s="1">
-        <v>105108.5435</v>
+        <v>104695.8138</v>
       </c>
       <c r="K12" s="1">
-        <v>95248.2617</v>
+        <v>95663.3452</v>
       </c>
       <c r="L12" s="1">
-        <v>14.3074</v>
+        <v>14.341</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5390.2879</v>
+        <v>5401.1034</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9907.688899999999</v>
+        <v>-9958.456099999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0436</v>
+        <v>-0.0441</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>15.486</v>
       </c>
       <c r="C13" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D13" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E13" s="1">
-        <v>7701.8761</v>
+        <v>7717.3164</v>
       </c>
       <c r="F13" s="1">
-        <v>263.746</v>
+        <v>264.2834</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>119271.2538</v>
+        <v>119271.1242</v>
       </c>
       <c r="I13" s="1">
-        <v>7707.166</v>
+        <v>7243.914</v>
       </c>
       <c r="J13" s="1">
-        <v>126978.4197</v>
+        <v>126515.0383</v>
       </c>
       <c r="K13" s="1">
-        <v>110546.2385</v>
+        <v>111022.9047</v>
       </c>
       <c r="L13" s="1">
-        <v>14.3532</v>
+        <v>14.3862</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4084.3699</v>
+        <v>-4100.8851</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1031</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>16.1958</v>
       </c>
       <c r="C14" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D14" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E14" s="1">
-        <v>7965.6221</v>
+        <v>7981.5997</v>
       </c>
       <c r="F14" s="1">
-        <v>-7965.6221</v>
+        <v>-7981.5997</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>129008.8257</v>
+        <v>129009.789</v>
       </c>
       <c r="I14" s="1">
-        <v>13622.796</v>
+        <v>13143.029</v>
       </c>
       <c r="J14" s="1">
-        <v>142631.6217</v>
+        <v>142152.8179</v>
       </c>
       <c r="K14" s="1">
-        <v>114630.6084</v>
+        <v>115123.7898</v>
       </c>
       <c r="L14" s="1">
-        <v>14.3907</v>
+        <v>14.4236</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129008.8257</v>
+        <v>129009.789</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0413</v>
@@ -2920,7 +2920,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -2992,16 +2992,16 @@
         <v>13.3527</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.8804</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E3" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="F3" s="1">
-        <v>699.1729</v>
+        <v>703.5791</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10395.201</v>
+        <v>10353.6007</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10395.201</v>
+        <v>10353.6007</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9704.799000000001</v>
+        <v>-9785.5183</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0395</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>14.6268</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E4" s="1">
-        <v>1448.0851</v>
+        <v>1450.9911</v>
       </c>
       <c r="F4" s="1">
-        <v>623.5232</v>
+        <v>624.761</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21180.8507</v>
+        <v>21180.9884</v>
       </c>
       <c r="I4" s="1">
-        <v>295.201</v>
+        <v>214.4817</v>
       </c>
       <c r="J4" s="1">
-        <v>21476.0517</v>
+        <v>21395.4701</v>
       </c>
       <c r="K4" s="1">
-        <v>19704.799</v>
+        <v>19785.5183</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6075</v>
+        <v>13.6359</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9120.149299999999</v>
+        <v>-9156.560100000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.053</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>15.3636</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E5" s="1">
-        <v>2071.6083</v>
+        <v>2075.7522</v>
       </c>
       <c r="F5" s="1">
-        <v>571.2625</v>
+        <v>572.4103</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31827.361</v>
+        <v>31827.3006</v>
       </c>
       <c r="I5" s="1">
-        <v>1175.0517</v>
+        <v>1057.9215</v>
       </c>
       <c r="J5" s="1">
-        <v>33002.4126</v>
+        <v>32885.2221</v>
       </c>
       <c r="K5" s="1">
-        <v>28824.9483</v>
+        <v>28942.0785</v>
       </c>
       <c r="L5" s="1">
-        <v>13.9143</v>
+        <v>13.9429</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8776.648999999999</v>
+        <v>-8811.912700000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0485</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>13.8711</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E6" s="1">
-        <v>2642.8708</v>
+        <v>2648.1624</v>
       </c>
       <c r="F6" s="1">
-        <v>893.8298</v>
+        <v>881.0776</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>36659.5253</v>
+        <v>36659.572</v>
       </c>
       <c r="I6" s="1">
-        <v>2398.4026</v>
+        <v>2246.0089</v>
       </c>
       <c r="J6" s="1">
-        <v>39057.928</v>
+        <v>38905.5809</v>
       </c>
       <c r="K6" s="1">
-        <v>37601.5974</v>
+        <v>37753.9911</v>
       </c>
       <c r="L6" s="1">
-        <v>14.2276</v>
+        <v>14.2567</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>932.2237</v>
+        <v>934.0885</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11466.1789</v>
+        <v>-11311.9204</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0917</v>
+        <v>-0.09279999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>14.1252</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E7" s="1">
-        <v>3536.7006</v>
+        <v>3529.24</v>
       </c>
       <c r="F7" s="1">
-        <v>773.9518</v>
+        <v>772.5359999999999</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49956.6036</v>
+        <v>49751.6964</v>
       </c>
       <c r="I7" s="1">
-        <v>932.2237</v>
+        <v>934.0885</v>
       </c>
       <c r="J7" s="1">
-        <v>50888.8273</v>
+        <v>50685.7849</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.1375</v>
+        <v>14.1674</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10932.2237</v>
+        <v>-10934.0885</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0373</v>
+        <v>0.0364</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>14.1934</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E8" s="1">
-        <v>4310.6524</v>
+        <v>4301.776</v>
       </c>
       <c r="F8" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61182.8138</v>
+        <v>60934.6574</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>61182.8138</v>
+        <v>60934.6574</v>
       </c>
       <c r="K8" s="1">
-        <v>60932.2237</v>
+        <v>60934.0885</v>
       </c>
       <c r="L8" s="1">
-        <v>14.1353</v>
+        <v>14.1649</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0048</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>14.1176</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E9" s="1">
-        <v>5015.2052</v>
+        <v>5004.9219</v>
       </c>
       <c r="F9" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70802.66130000001</v>
+        <v>70516.3466</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70802.66130000001</v>
+        <v>70516.3466</v>
       </c>
       <c r="K9" s="1">
-        <v>70932.2237</v>
+        <v>70934.0885</v>
       </c>
       <c r="L9" s="1">
-        <v>14.1434</v>
+        <v>14.1729</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1939.7936</v>
+        <v>1935.7992</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8060.2064</v>
+        <v>-8064.2008</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0053</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>15.3311</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E10" s="1">
-        <v>5723.5409</v>
+        <v>5711.8405</v>
       </c>
       <c r="F10" s="1">
-        <v>387.2582</v>
+        <v>411.2198</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>87748.17819999999</v>
+        <v>87393.4445</v>
       </c>
       <c r="I10" s="1">
-        <v>1939.7936</v>
+        <v>1935.7992</v>
       </c>
       <c r="J10" s="1">
-        <v>89687.97169999999</v>
+        <v>89329.24370000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80932.2237</v>
+        <v>80934.0885</v>
       </c>
       <c r="L10" s="1">
-        <v>14.1402</v>
+        <v>14.1695</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5937.0945</v>
+        <v>-6317.0771</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.11</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>15.3637</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E11" s="1">
-        <v>6110.7991</v>
+        <v>6123.0604</v>
       </c>
       <c r="F11" s="1">
-        <v>698.8968</v>
+        <v>700.2701</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>93884.4847</v>
+        <v>93884.8845</v>
       </c>
       <c r="I11" s="1">
-        <v>6002.6991</v>
+        <v>5618.7222</v>
       </c>
       <c r="J11" s="1">
-        <v>99887.1838</v>
+        <v>99503.6066</v>
       </c>
       <c r="K11" s="1">
-        <v>86869.3183</v>
+        <v>87251.1655</v>
       </c>
       <c r="L11" s="1">
-        <v>14.2157</v>
+        <v>14.2496</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10737.6407</v>
+        <v>-10780.3076</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>14.6447</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E12" s="1">
-        <v>6809.6959</v>
+        <v>6823.3304</v>
       </c>
       <c r="F12" s="1">
-        <v>1042.3606</v>
+        <v>1011.2045</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>99725.954</v>
+        <v>99725.7035</v>
       </c>
       <c r="I12" s="1">
-        <v>5265.0584</v>
+        <v>4838.4146</v>
       </c>
       <c r="J12" s="1">
-        <v>104991.0124</v>
+        <v>104564.1181</v>
       </c>
       <c r="K12" s="1">
-        <v>97606.9589</v>
+        <v>98031.4731</v>
       </c>
       <c r="L12" s="1">
-        <v>14.3335</v>
+        <v>14.3671</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5499.7192</v>
+        <v>5510.7543</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9765.3392</v>
+        <v>-9327.6603</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0446</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>15.486</v>
       </c>
       <c r="C13" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D13" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E13" s="1">
-        <v>7852.0565</v>
+        <v>7834.5349</v>
       </c>
       <c r="F13" s="1">
-        <v>337.6006</v>
+        <v>371.5492</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>121596.9476</v>
+        <v>121082.737</v>
       </c>
       <c r="I13" s="1">
-        <v>5499.7192</v>
+        <v>5510.7543</v>
       </c>
       <c r="J13" s="1">
-        <v>127096.6668</v>
+        <v>126593.4913</v>
       </c>
       <c r="K13" s="1">
-        <v>112872.0173</v>
+        <v>112869.8877</v>
       </c>
       <c r="L13" s="1">
-        <v>14.3748</v>
+        <v>14.4067</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5228.0826</v>
+        <v>-5765.3292</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1053</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>16.1958</v>
       </c>
       <c r="C14" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D14" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E14" s="1">
-        <v>8189.6571</v>
+        <v>8206.0841</v>
       </c>
       <c r="F14" s="1">
-        <v>-8189.6571</v>
+        <v>-8206.0841</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>132637.2298</v>
+        <v>132638.2201</v>
       </c>
       <c r="I14" s="1">
-        <v>10271.6367</v>
+        <v>9745.4251</v>
       </c>
       <c r="J14" s="1">
-        <v>142908.8665</v>
+        <v>142383.6453</v>
       </c>
       <c r="K14" s="1">
-        <v>118100.0999</v>
+        <v>118635.2169</v>
       </c>
       <c r="L14" s="1">
-        <v>14.4206</v>
+        <v>14.457</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132637.2298</v>
+        <v>132638.2201</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0424</v>
@@ -3760,16 +3760,16 @@
         <v>13.3527</v>
       </c>
       <c r="C2" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D2" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.8804</v>
       </c>
       <c r="C3" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D3" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E3" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="F3" s="1">
-        <v>702.7751</v>
+        <v>707.1885</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10395.201</v>
+        <v>10353.6007</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10395.201</v>
+        <v>10353.6007</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9754.799000000001</v>
+        <v>-9835.718999999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0395</v>
+        <v>0.0354</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>14.6268</v>
       </c>
       <c r="C4" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D4" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E4" s="1">
-        <v>1451.6873</v>
+        <v>1454.6006</v>
       </c>
       <c r="F4" s="1">
-        <v>630.2616</v>
+        <v>631.5128999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21233.5394</v>
+        <v>21233.6774</v>
       </c>
       <c r="I4" s="1">
-        <v>245.201</v>
+        <v>164.281</v>
       </c>
       <c r="J4" s="1">
-        <v>21478.7403</v>
+        <v>21397.9584</v>
       </c>
       <c r="K4" s="1">
-        <v>19754.799</v>
+        <v>19835.719</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6082</v>
+        <v>13.6365</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9218.7106</v>
+        <v>-9255.516100000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0531</v>
+        <v>0.0513</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>15.3636</v>
       </c>
       <c r="C5" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D5" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E5" s="1">
-        <v>2081.9489</v>
+        <v>2086.1135</v>
       </c>
       <c r="F5" s="1">
-        <v>580.7756000000001</v>
+        <v>581.9424</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31986.2299</v>
+        <v>31986.1692</v>
       </c>
       <c r="I5" s="1">
-        <v>1026.4903</v>
+        <v>908.7649</v>
       </c>
       <c r="J5" s="1">
-        <v>33012.7203</v>
+        <v>32894.9341</v>
       </c>
       <c r="K5" s="1">
-        <v>28973.5097</v>
+        <v>29091.2351</v>
       </c>
       <c r="L5" s="1">
-        <v>13.9165</v>
+        <v>13.9452</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8922.8038</v>
+        <v>-8958.654</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0487</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>13.8711</v>
       </c>
       <c r="C6" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D6" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E6" s="1">
-        <v>2662.7245</v>
+        <v>2668.0559</v>
       </c>
       <c r="F6" s="1">
-        <v>872.583</v>
+        <v>859.7883</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>36934.9175</v>
+        <v>36934.9645</v>
       </c>
       <c r="I6" s="1">
-        <v>2103.6865</v>
+        <v>1950.1109</v>
       </c>
       <c r="J6" s="1">
-        <v>39038.604</v>
+        <v>38885.0755</v>
       </c>
       <c r="K6" s="1">
-        <v>37896.3135</v>
+        <v>38049.8891</v>
       </c>
       <c r="L6" s="1">
-        <v>14.2322</v>
+        <v>14.2613</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>936.877</v>
+        <v>938.7511</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-11166.8095</v>
+        <v>-11011.3599</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0924</v>
+        <v>-0.0935</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>14.1252</v>
       </c>
       <c r="C7" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D7" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E7" s="1">
-        <v>3535.3075</v>
+        <v>3527.8441</v>
       </c>
       <c r="F7" s="1">
-        <v>774.2812</v>
+        <v>772.8654</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49936.9256</v>
+        <v>49732.0185</v>
       </c>
       <c r="I7" s="1">
-        <v>936.877</v>
+        <v>938.7511</v>
       </c>
       <c r="J7" s="1">
-        <v>50873.8026</v>
+        <v>50670.7696</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>14.143</v>
+        <v>14.173</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10936.877</v>
+        <v>-10938.7511</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0374</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>14.1934</v>
       </c>
       <c r="C8" s="1">
-        <v>14.1934</v>
+        <v>14.165</v>
       </c>
       <c r="D8" s="1">
-        <v>14.1934</v>
+        <v>14.2218</v>
       </c>
       <c r="E8" s="1">
-        <v>4309.5887</v>
+        <v>4300.7096</v>
       </c>
       <c r="F8" s="1">
-        <v>704.5528</v>
+        <v>703.1459</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61167.7166</v>
+        <v>60919.5509</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>61167.7166</v>
+        <v>60919.5509</v>
       </c>
       <c r="K8" s="1">
-        <v>60936.877</v>
+        <v>60938.7511</v>
       </c>
       <c r="L8" s="1">
-        <v>14.1398</v>
+        <v>14.1695</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0048</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>14.1176</v>
       </c>
       <c r="C9" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D9" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E9" s="1">
-        <v>5014.1415</v>
+        <v>5003.8554</v>
       </c>
       <c r="F9" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70787.6447</v>
+        <v>70501.3208</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70787.6447</v>
+        <v>70501.3208</v>
       </c>
       <c r="K9" s="1">
-        <v>70936.87699999999</v>
+        <v>70938.75109999999</v>
       </c>
       <c r="L9" s="1">
-        <v>14.1474</v>
+        <v>14.1768</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>1939.3149</v>
+        <v>1935.3193</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8060.6851</v>
+        <v>-8064.6807</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0053</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>15.3311</v>
       </c>
       <c r="C10" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D10" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E10" s="1">
-        <v>5722.4772</v>
+        <v>5710.774</v>
       </c>
       <c r="F10" s="1">
-        <v>512.7777</v>
+        <v>536.9918</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>87731.8708</v>
+        <v>87377.1272</v>
       </c>
       <c r="I10" s="1">
-        <v>1939.3149</v>
+        <v>1935.3193</v>
       </c>
       <c r="J10" s="1">
-        <v>89671.1857</v>
+        <v>89312.44650000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80936.87699999999</v>
+        <v>80938.75109999999</v>
       </c>
       <c r="L10" s="1">
-        <v>14.1437</v>
+        <v>14.173</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7861.4461</v>
+        <v>-8249.161</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.11</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>15.3637</v>
       </c>
       <c r="C11" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D11" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E11" s="1">
-        <v>6235.2549</v>
+        <v>6247.7659</v>
       </c>
       <c r="F11" s="1">
-        <v>730.9848</v>
+        <v>732.4217</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>95796.58620000001</v>
+        <v>95796.9941</v>
       </c>
       <c r="I11" s="1">
-        <v>4077.8688</v>
+        <v>3686.1583</v>
       </c>
       <c r="J11" s="1">
-        <v>99874.455</v>
+        <v>99483.15240000001</v>
       </c>
       <c r="K11" s="1">
-        <v>88798.32309999999</v>
+        <v>89187.9121</v>
       </c>
       <c r="L11" s="1">
-        <v>14.2413</v>
+        <v>14.2752</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11230.6304</v>
+        <v>-11275.2665</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>14.6447</v>
       </c>
       <c r="C12" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D12" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E12" s="1">
-        <v>6966.2397</v>
+        <v>6980.1876</v>
       </c>
       <c r="F12" s="1">
-        <v>877.2619999999999</v>
+        <v>845.7743</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>102018.4903</v>
+        <v>102018.2341</v>
       </c>
       <c r="I12" s="1">
-        <v>2847.2384</v>
+        <v>2410.8918</v>
       </c>
       <c r="J12" s="1">
-        <v>104865.7287</v>
+        <v>104429.1258</v>
       </c>
       <c r="K12" s="1">
-        <v>100028.9536</v>
+        <v>100463.1786</v>
       </c>
       <c r="L12" s="1">
-        <v>14.3591</v>
+        <v>14.3926</v>
       </c>
       <c r="M12" s="1">
         <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>5611.7294</v>
+        <v>5622.9893</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7235.5089</v>
+        <v>-6787.9025</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0456</v>
+        <v>-0.0462</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>15.486</v>
       </c>
       <c r="C13" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D13" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E13" s="1">
-        <v>7843.5017</v>
+        <v>7825.9619</v>
       </c>
       <c r="F13" s="1">
-        <v>577.7895</v>
+        <v>612.2209</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>121464.4666</v>
+        <v>120950.2411</v>
       </c>
       <c r="I13" s="1">
-        <v>5611.7294</v>
+        <v>5622.9893</v>
       </c>
       <c r="J13" s="1">
-        <v>127076.1961</v>
+        <v>126573.2303</v>
       </c>
       <c r="K13" s="1">
-        <v>112876.1919</v>
+        <v>112874.0704</v>
       </c>
       <c r="L13" s="1">
-        <v>14.391</v>
+        <v>14.423</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8947.6477</v>
+        <v>-9499.830900000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1063</v>
+        <v>0.1061</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>16.1958</v>
       </c>
       <c r="C14" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D14" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E14" s="1">
-        <v>8421.2911</v>
+        <v>8438.182699999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8421.2911</v>
+        <v>-8438.182699999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>136388.7046</v>
+        <v>136389.723</v>
       </c>
       <c r="I14" s="1">
-        <v>6664.0818</v>
+        <v>6123.1583</v>
       </c>
       <c r="J14" s="1">
-        <v>143052.7864</v>
+        <v>142512.8813</v>
       </c>
       <c r="K14" s="1">
-        <v>121823.8396</v>
+        <v>122373.9013</v>
       </c>
       <c r="L14" s="1">
-        <v>14.4662</v>
+        <v>14.5024</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>136388.7046</v>
+        <v>136389.723</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0436</v>
+        <v>0.0435</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4453,7 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>14.5504</v>
+        <v>14.5794</v>
       </c>
       <c r="D3" s="1">
-        <v>14.3738</v>
+        <v>14.4033</v>
       </c>
       <c r="E3" s="1">
-        <v>14.3907</v>
+        <v>14.4236</v>
       </c>
       <c r="F3" s="1">
-        <v>14.4206</v>
+        <v>14.457</v>
       </c>
       <c r="G3" s="1">
-        <v>14.4662</v>
+        <v>14.5024</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.2089</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3019</v>
+        <v>0.2894</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2955</v>
+        <v>0.2845</v>
       </c>
       <c r="E4" s="3">
-        <v>0.299</v>
+        <v>0.2875</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3012</v>
+        <v>0.2893</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3022</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,13 +4536,13 @@
         <v>0.1678</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1948</v>
+        <v>0.1945</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1854</v>
+        <v>0.1856</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1878</v>
+        <v>0.1879</v>
       </c>
       <c r="F5" s="3">
         <v>0.1897</v>
@@ -4559,19 +4559,19 @@
         <v>1.1237</v>
       </c>
       <c r="C6" s="4">
-        <v>1.4457</v>
+        <v>1.3835</v>
       </c>
       <c r="D6" s="4">
-        <v>1.484</v>
+        <v>1.4236</v>
       </c>
       <c r="E6" s="4">
-        <v>1.4835</v>
+        <v>1.4221</v>
       </c>
       <c r="F6" s="4">
-        <v>1.4805</v>
+        <v>1.4181</v>
       </c>
       <c r="G6" s="4">
-        <v>1.4752</v>
+        <v>1.4122</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3815</v>
+        <v>0.3713</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3874</v>
+        <v>0.378</v>
       </c>
       <c r="E7" s="3">
-        <v>0.3877</v>
+        <v>0.3779</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3871</v>
+        <v>0.377</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3854</v>
+        <v>0.3751</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8608.7521</v>
+        <v>8591.4015</v>
       </c>
       <c r="D8" s="1">
-        <v>8117.8189</v>
+        <v>8134.0899</v>
       </c>
       <c r="E8" s="1">
-        <v>8253.404399999999</v>
+        <v>8266.818799999999</v>
       </c>
       <c r="F8" s="1">
-        <v>8371.736500000001</v>
+        <v>8380.642</v>
       </c>
       <c r="G8" s="1">
-        <v>8487.921399999999</v>
+        <v>8497.059600000001</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P35_KFSDIV.xlsx
+++ b/output/1Y_P35_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.3527</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8804</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6268</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3636</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8711</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.1252</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.1934</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.1176</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3311</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3637</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6447</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.486</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>16.1958</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.3527</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8804</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6268</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3636</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8711</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.1252</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.1934</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.1176</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3311</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3637</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6447</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.486</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>16.1958</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.3527</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8804</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6268</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3636</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8711</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.1252</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.1934</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.1176</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3311</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3637</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6447</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.486</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>16.1958</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.3527</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8804</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6268</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3636</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8711</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.1252</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.1934</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.1176</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3311</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3637</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6447</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.486</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>16.1958</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.3527</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>13.8804</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.6268</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>15.3636</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8711</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.1252</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.1934</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.1176</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3311</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>15.3637</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6447</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.486</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>16.1958</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>10090.0799</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1081</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2812</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.249</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.2155</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.1796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
